--- a/src/main/inputs/TestData.xlsx
+++ b/src/main/inputs/TestData.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15165" windowHeight="2640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="ContactForm" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -26,13 +25,13 @@
     <t>ContactMessage</t>
   </si>
   <si>
-    <t>Sudharsan</t>
-  </si>
-  <si>
-    <t>sudharsan.selenium@gmail.com</t>
-  </si>
-  <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>abc.xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul</t>
   </si>
 </sst>
 </file>
@@ -91,6 +90,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -138,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +387,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,13 +410,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -423,16 +425,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>